--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Engineering\College\Year 2\Second Term\Computational Math\Projects\Linear-Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51F18580-E01D-4995-82E2-169304B93ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{79601250-5809-4F4F-A7DE-BAE98F4EFE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D9ABA7F-7F68-4494-A5AC-0041B27A4704}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{6D9ABA7F-7F68-4494-A5AC-0041B27A4704}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -396,7 +396,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,7 +414,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.1</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -422,7 +422,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.11</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.111</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.1111</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -446,15 +446,15 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.11111</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>0.111111</v>
+        <v>11.9</v>
       </c>
     </row>
   </sheetData>
